--- a/eval-book-smt-results.xlsx
+++ b/eval-book-smt-results.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0.8121 ± 0.0088</t>
+          <t>0.81 ± 0.01</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>0.7204 ± 0.0170</t>
+          <t>0.72 ± 0.02</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>0.7870 ± 0.0207</t>
+          <t>0.79 ± 0.02</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>0.5955 ± 0.0289</t>
+          <t>0.60 ± 0.03</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>0.6775 ± 0.0210</t>
+          <t>0.68 ± 0.02</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>0.4925 ± 0.0282</t>
+          <t>0.49 ± 0.03</t>
         </is>
       </c>
     </row>
@@ -530,32 +530,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.7954 ± 0.0124</t>
+          <t>0.80 ± 0.01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.6990 ± 0.0118</t>
+          <t>0.70 ± 0.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.7729 ± 0.0238</t>
+          <t>0.77 ± 0.02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.5633 ± 0.0236</t>
+          <t>0.56 ± 0.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6510 ± 0.0147</t>
+          <t>0.65 ± 0.01</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.4590 ± 0.0217</t>
+          <t>0.46 ± 0.02</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.7721 ± 0.0135</t>
+          <t>0.77 ± 0.01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.6909 ± 0.0098</t>
+          <t>0.69 ± 0.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.7487 ± 0.0166</t>
+          <t>0.75 ± 0.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.5615 ± 0.0180</t>
+          <t>0.56 ± 0.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6415 ± 0.0123</t>
+          <t>0.64 ± 0.01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.4349 ± 0.0180</t>
+          <t>0.43 ± 0.02</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.7391 ± 0.0170</t>
+          <t>0.74 ± 0.02</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.6564 ± 0.0160</t>
+          <t>0.66 ± 0.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.7045 ± 0.0260</t>
+          <t>0.70 ± 0.03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.5223 ± 0.0263</t>
+          <t>0.52 ± 0.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5993 ± 0.0201</t>
+          <t>0.60 ± 0.02</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.3687 ± 0.0301</t>
+          <t>0.37 ± 0.03</t>
         </is>
       </c>
     </row>
@@ -641,32 +641,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.7956 ± 0.0117</t>
+          <t>0.80 ± 0.01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.7028 ± 0.0108</t>
+          <t>0.70 ± 0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.7561 ± 0.0136</t>
+          <t>0.76 ± 0.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.5802 ± 0.0185</t>
+          <t>0.58 ± 0.02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6563 ± 0.0134</t>
+          <t>0.66 ± 0.01</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.4532 ± 0.0183</t>
+          <t>0.45 ± 0.02</t>
         </is>
       </c>
     </row>
@@ -720,32 +720,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0.8162 ± 0.0106</t>
+          <t>0.82 ± 0.01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0.7225 ± 0.0152</t>
+          <t>0.72 ± 0.02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0.7897 ± 0.0245</t>
+          <t>0.79 ± 0.02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0.6001 ± 0.0404</t>
+          <t>0.60 ± 0.04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0.6805 ± 0.0193</t>
+          <t>0.68 ± 0.02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0.4973 ± 0.0140</t>
+          <t>0.50 ± 0.01</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.8042 ± 0.0095</t>
+          <t>0.80 ± 0.01</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.7157 ± 0.0105</t>
+          <t>0.72 ± 0.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.7847 ± 0.0252</t>
+          <t>0.78 ± 0.03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.5880 ± 0.0172</t>
+          <t>0.59 ± 0.02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6718 ± 0.0129</t>
+          <t>0.67 ± 0.01</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.4853 ± 0.0239</t>
+          <t>0.49 ± 0.02</t>
         </is>
       </c>
     </row>
@@ -794,32 +794,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.7785 ± 0.0091</t>
+          <t>0.78 ± 0.01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.6963 ± 0.0092</t>
+          <t>0.70 ± 0.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.7592 ± 0.0285</t>
+          <t>0.76 ± 0.03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.5661 ± 0.0140</t>
+          <t>0.57 ± 0.01</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6481 ± 0.0110</t>
+          <t>0.65 ± 0.01</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.4473 ± 0.0257</t>
+          <t>0.45 ± 0.03</t>
         </is>
       </c>
     </row>
@@ -831,32 +831,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.7448 ± 0.0168</t>
+          <t>0.74 ± 0.02</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.6790 ± 0.0135</t>
+          <t>0.68 ± 0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.7423 ± 0.0269</t>
+          <t>0.74 ± 0.03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.5427 ± 0.0202</t>
+          <t>0.54 ± 0.02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.6266 ± 0.0166</t>
+          <t>0.63 ± 0.02</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.4175 ± 0.0288</t>
+          <t>0.42 ± 0.03</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.8066 ± 0.0089</t>
+          <t>0.81 ± 0.01</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.7149 ± 0.0084</t>
+          <t>0.71 ± 0.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.7660 ± 0.0170</t>
+          <t>0.77 ± 0.02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.5981 ± 0.0175</t>
+          <t>0.60 ± 0.02</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.6714 ± 0.0106</t>
+          <t>0.67 ± 0.01</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.4736 ± 0.0159</t>
+          <t>0.47 ± 0.02</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -947,32 +947,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0.8107 ± 0.0123</t>
+          <t>0.81 ± 0.01</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.7146 ± 0.0180</t>
+          <t>0.71 ± 0.02</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0.8057 ± 0.0300</t>
+          <t>0.81 ± 0.03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.5752 ± 0.0338</t>
+          <t>0.58 ± 0.03</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.6702 ± 0.0225</t>
+          <t>0.67 ± 0.02</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0.4967 ± 0.0303</t>
+          <t>0.50 ± 0.03</t>
         </is>
       </c>
     </row>
@@ -984,32 +984,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.7938 ± 0.0066</t>
+          <t>0.79 ± 0.01</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.7081 ± 0.0089</t>
+          <t>0.71 ± 0.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.7656 ± 0.0198</t>
+          <t>0.77 ± 0.02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.5845 ± 0.0099</t>
+          <t>0.58 ± 0.01</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.6628 ± 0.0108</t>
+          <t>0.66 ± 0.01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.4650 ± 0.0213</t>
+          <t>0.46 ± 0.02</t>
         </is>
       </c>
     </row>
@@ -1021,32 +1021,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.7563 ± 0.0176</t>
+          <t>0.76 ± 0.02</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.6888 ± 0.0163</t>
+          <t>0.69 ± 0.02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.7341 ± 0.0258</t>
+          <t>0.73 ± 0.03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.5672 ± 0.0239</t>
+          <t>0.57 ± 0.02</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.6396 ± 0.0201</t>
+          <t>0.64 ± 0.02</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.4235 ± 0.0322</t>
+          <t>0.42 ± 0.03</t>
         </is>
       </c>
     </row>
@@ -1058,32 +1058,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.7508 ± 0.0155</t>
+          <t>0.75 ± 0.02</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.6807 ± 0.0135</t>
+          <t>0.68 ± 0.01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.7244 ± 0.0241</t>
+          <t>0.72 ± 0.02</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.5578 ± 0.0230</t>
+          <t>0.56 ± 0.02</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.6298 ± 0.0168</t>
+          <t>0.63 ± 0.02</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.4082 ± 0.0267</t>
+          <t>0.41 ± 0.03</t>
         </is>
       </c>
     </row>
@@ -1095,32 +1095,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8035 ± 0.0119</t>
+          <t>0.80 ± 0.01</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0.7172 ± 0.0124</t>
+          <t>0.72 ± 0.01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.7587 ± 0.0215</t>
+          <t>0.76 ± 0.02</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0.6079 ± 0.0195</t>
+          <t>0.61 ± 0.02</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0.6747 ± 0.0151</t>
+          <t>0.67 ± 0.02</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.4722 ± 0.0250</t>
+          <t>0.47 ± 0.03</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
